--- a/FialsTable.xlsx
+++ b/FialsTable.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14175" windowWidth="24450" xWindow="3045" yWindow="465"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2025" yWindow="3315" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -253,64 +253,64 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="4" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -328,7 +328,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -669,51 +669,51 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D23" sqref="D21:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="35"/>
-    <col customWidth="1" max="2" min="2" width="15.42578125"/>
-    <col customWidth="1" max="3" min="3" width="16.140625"/>
-    <col customWidth="1" max="4" min="4" width="23.42578125"/>
-    <col customWidth="1" max="5" min="5" width="29"/>
-    <col customWidth="1" max="6" min="6" width="0.28515625"/>
-    <col customWidth="1" max="7" min="7" width="32.28515625"/>
-    <col customWidth="1" max="8" min="8" width="33.85546875"/>
-    <col customWidth="1" max="9" min="9" width="11.5703125"/>
+    <col width="35" customWidth="1" min="1" max="1"/>
+    <col width="15.42578125" customWidth="1" min="2" max="2"/>
+    <col width="16.140625" customWidth="1" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="0.28515625" customWidth="1" min="6" max="6"/>
+    <col width="32.28515625" customWidth="1" min="7" max="7"/>
+    <col width="33.85546875" customWidth="1" min="8" max="8"/>
+    <col width="12.140625" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.1" r="1">
+    <row r="1" ht="20.1" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Vial of the Ghost</t>
         </is>
       </c>
       <c r="B1" s="3" t="n">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C1" s="12">
+        <v>274.86</v>
+      </c>
+      <c r="C1" s="13">
         <f>D1-(B1+B2)</f>
         <v/>
       </c>
-      <c r="D1" s="14" t="n">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="D1" s="15" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1" s="17" t="inlineStr">
         <is>
           <t>Soul Ripper</t>
         </is>
       </c>
-      <c r="F1" s="17" t="n"/>
+      <c r="F1" s="18" t="n"/>
       <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Фиал призрака</t>
         </is>
       </c>
-      <c r="H1" s="10" t="inlineStr">
+      <c r="H1" s="11" t="inlineStr">
         <is>
           <t>Жнец душ</t>
         </is>
@@ -723,44 +723,44 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="2" thickBot="1">
+    <row r="2" ht="20.1" customHeight="1" thickBot="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Soul Catcher</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13" t="n"/>
-      <c r="D2" s="15" t="n"/>
-      <c r="E2" s="11" t="n"/>
-      <c r="F2" s="18" t="n"/>
+        <v>1.6</v>
+      </c>
+      <c r="C2" s="14" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="12" t="n"/>
+      <c r="F2" s="9" t="n"/>
       <c r="G2" s="7" t="inlineStr">
         <is>
           <t>Душелов</t>
         </is>
       </c>
-      <c r="H2" s="11" t="n"/>
-      <c r="I2" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="3">
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="20.1" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Vial of Transcendence</t>
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>338.1</v>
-      </c>
-      <c r="C3" s="12">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13">
         <f>D3-(B3+B4)</f>
         <v/>
       </c>
-      <c r="D3" s="14" t="n">
-        <v>96.40000000000001</v>
-      </c>
-      <c r="E3" s="16" t="inlineStr">
+      <c r="D3" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="17" t="inlineStr">
         <is>
           <t>Transcendent Spirit</t>
         </is>
@@ -771,7 +771,7 @@
           <t>Фиал превосходства</t>
         </is>
       </c>
-      <c r="H3" s="10" t="inlineStr">
+      <c r="H3" s="11" t="inlineStr">
         <is>
           <t>Запредельный дух</t>
         </is>
@@ -781,55 +781,55 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="4" thickBot="1">
+    <row r="4" ht="20.1" customHeight="1" thickBot="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Tempered Spirit</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="n"/>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="11" t="n"/>
-      <c r="F4" s="18" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="C4" s="14" t="n"/>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="12" t="n"/>
+      <c r="F4" s="9" t="n"/>
       <c r="G4" s="7" t="inlineStr">
         <is>
           <t>Закалённый дух</t>
         </is>
       </c>
-      <c r="H4" s="11" t="n"/>
-      <c r="I4" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="5">
+      <c r="H4" s="12" t="n"/>
+      <c r="I4" s="9" t="n"/>
+    </row>
+    <row r="5" ht="20.1" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Vial of Transcendence</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>338.1</v>
-      </c>
-      <c r="C5" s="12">
+        <v>30</v>
+      </c>
+      <c r="C5" s="13">
         <f>D5-(B5+B6)</f>
         <v/>
       </c>
-      <c r="D5" s="14" t="n">
-        <v>426.3</v>
-      </c>
-      <c r="E5" s="16" t="inlineStr">
+      <c r="D5" s="15" t="n">
+        <v>104</v>
+      </c>
+      <c r="E5" s="17" t="inlineStr">
         <is>
           <t>Transcendent Mind</t>
         </is>
       </c>
-      <c r="F5" s="17" t="n"/>
+      <c r="F5" s="18" t="n"/>
       <c r="G5" s="6" t="inlineStr">
         <is>
           <t>Фиал превосходства</t>
         </is>
       </c>
-      <c r="H5" s="10" t="inlineStr">
+      <c r="H5" s="11" t="inlineStr">
         <is>
           <t>Запредельный разум</t>
         </is>
@@ -839,7 +839,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="6" thickBot="1">
+    <row r="6" ht="20.1" customHeight="1" thickBot="1">
       <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Tempered Mind</t>
@@ -848,35 +848,35 @@
       <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="n"/>
-      <c r="D6" s="15" t="n"/>
-      <c r="E6" s="11" t="n"/>
-      <c r="F6" s="18" t="n"/>
+      <c r="C6" s="14" t="n"/>
+      <c r="D6" s="16" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="9" t="n"/>
       <c r="G6" s="7" t="inlineStr">
         <is>
           <t>Закалённый разум</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n"/>
-      <c r="I6" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="7">
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="9" t="n"/>
+    </row>
+    <row r="7" ht="20.1" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Vial of Transcendence</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>338.1</v>
-      </c>
-      <c r="C7" s="12">
+        <v>30</v>
+      </c>
+      <c r="C7" s="13">
         <f>D7-(B7+B8)</f>
         <v/>
       </c>
-      <c r="D7" s="14" t="n">
-        <v>426.3</v>
-      </c>
-      <c r="E7" s="16" t="inlineStr">
+      <c r="D7" s="15" t="n">
+        <v>90</v>
+      </c>
+      <c r="E7" s="17" t="inlineStr">
         <is>
           <t>Transcendent Flesh</t>
         </is>
@@ -887,65 +887,65 @@
           <t>Фиал превосходства</t>
         </is>
       </c>
-      <c r="H7" s="10" t="inlineStr">
+      <c r="H7" s="11" t="inlineStr">
         <is>
           <t>Закалённая плоть</t>
         </is>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="10">
         <f>IF(MAX($C$1:$C$22)=C7,"Лучший вариант","")</f>
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="8" thickBot="1">
+    <row r="8" ht="20.1" customHeight="1" thickBot="1">
       <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Tempered Flesh</t>
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" s="13" t="n"/>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="11" t="n"/>
-      <c r="F8" s="18" t="n"/>
+        <v>5</v>
+      </c>
+      <c r="C8" s="14" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="9" t="n"/>
       <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Закалённая плоть</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n"/>
-      <c r="I8" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="9">
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="9" t="n"/>
+    </row>
+    <row r="9" ht="20.1" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Vial of Awakening</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="12">
+        <v>10</v>
+      </c>
+      <c r="C9" s="13">
         <f>D9-(B9+B10)</f>
         <v/>
       </c>
-      <c r="D9" s="14" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="D9" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="17" t="inlineStr">
         <is>
           <t>Apep's Supremacy</t>
         </is>
       </c>
-      <c r="F9" s="17" t="n"/>
+      <c r="F9" s="18" t="n"/>
       <c r="G9" s="6" t="inlineStr">
         <is>
           <t>Фиал пробуждения</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="H9" s="11" t="inlineStr">
         <is>
           <t>Главенство Апепа</t>
         </is>
@@ -955,44 +955,44 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="10" thickBot="1">
+    <row r="10" ht="20.1" customHeight="1" thickBot="1">
       <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Apep's Slumber</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="13" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="11" t="n"/>
-      <c r="F10" s="18" t="n"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="14" t="n"/>
+      <c r="D10" s="16" t="n"/>
+      <c r="E10" s="12" t="n"/>
+      <c r="F10" s="9" t="n"/>
       <c r="G10" s="7" t="inlineStr">
         <is>
           <t>Забытьё Апепа</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n"/>
-      <c r="I10" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="11">
+      <c r="H10" s="12" t="n"/>
+      <c r="I10" s="9" t="n"/>
+    </row>
+    <row r="11" ht="20.1" customHeight="1">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Vial of Sacrifice</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="C11" s="13">
+        <f>D11-(B11+B12)</f>
+        <v/>
+      </c>
+      <c r="D11" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="C11" s="12">
-        <f>D11-(B11+B12)</f>
-        <v/>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16" t="inlineStr">
+      <c r="E11" s="17" t="inlineStr">
         <is>
           <t>Zerphi's Heart</t>
         </is>
@@ -1003,7 +1003,7 @@
           <t>Фиал жертвоприношения</t>
         </is>
       </c>
-      <c r="H11" s="10" t="inlineStr">
+      <c r="H11" s="11" t="inlineStr">
         <is>
           <t>Сердце Зерфи</t>
         </is>
@@ -1013,55 +1013,55 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="12" thickBot="1">
+    <row r="12" ht="20.1" customHeight="1" thickBot="1">
       <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Sacrificial Heart</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="13" t="n"/>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="11" t="n"/>
-      <c r="F12" s="18" t="n"/>
+        <v>4.8</v>
+      </c>
+      <c r="C12" s="14" t="n"/>
+      <c r="D12" s="16" t="n"/>
+      <c r="E12" s="12" t="n"/>
+      <c r="F12" s="9" t="n"/>
       <c r="G12" s="7" t="inlineStr">
         <is>
           <t>Жертвенное сердце</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n"/>
-      <c r="I12" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="13">
+      <c r="H12" s="12" t="n"/>
+      <c r="I12" s="9" t="n"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Vial of Consequence</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="C13" s="12">
+        <v>30</v>
+      </c>
+      <c r="C13" s="13">
         <f>D13-(B13+B14)</f>
         <v/>
       </c>
-      <c r="D13" s="14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" s="16" t="inlineStr">
+      <c r="D13" s="15" t="n">
+        <v>150</v>
+      </c>
+      <c r="E13" s="17" t="inlineStr">
         <is>
           <t>Coward's Legacy</t>
         </is>
       </c>
-      <c r="F13" s="17" t="n"/>
+      <c r="F13" s="18" t="n"/>
       <c r="G13" s="6" t="inlineStr">
         <is>
           <t>Фиал последствий</t>
         </is>
       </c>
-      <c r="H13" s="10" t="inlineStr">
+      <c r="H13" s="11" t="inlineStr">
         <is>
           <t>Наследие труса</t>
         </is>
@@ -1071,44 +1071,44 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="14" thickBot="1">
+    <row r="14" ht="20.1" customHeight="1" thickBot="1">
       <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Coward's Chains</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="C14" s="13" t="n"/>
-      <c r="D14" s="15" t="n"/>
-      <c r="E14" s="11" t="n"/>
-      <c r="F14" s="18" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="n"/>
+      <c r="D14" s="16" t="n"/>
+      <c r="E14" s="12" t="n"/>
+      <c r="F14" s="9" t="n"/>
       <c r="G14" s="7" t="inlineStr">
         <is>
           <t>Оковы труса</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="15">
+      <c r="H14" s="12" t="n"/>
+      <c r="I14" s="9" t="n"/>
+    </row>
+    <row r="15" ht="20.1" customHeight="1">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Vial of the Ritual</t>
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12">
+        <v>5</v>
+      </c>
+      <c r="C15" s="13">
         <f>D15-(B15+B16)</f>
         <v/>
       </c>
-      <c r="D15" s="14" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="E15" s="16" t="inlineStr">
+      <c r="D15" s="15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="E15" s="17" t="inlineStr">
         <is>
           <t>Omeyocan</t>
         </is>
@@ -1119,7 +1119,7 @@
           <t>Фиал ритуала</t>
         </is>
       </c>
-      <c r="H15" s="10" t="inlineStr">
+      <c r="H15" s="11" t="inlineStr">
         <is>
           <t>Омейокан</t>
         </is>
@@ -1129,28 +1129,28 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="16" thickBot="1">
+    <row r="16" ht="20.1" customHeight="1" thickBot="1">
       <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Dance of the Offered</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" s="13" t="n"/>
-      <c r="D16" s="15" t="n"/>
-      <c r="E16" s="11" t="n"/>
-      <c r="F16" s="18" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="14" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="12" t="n"/>
+      <c r="F16" s="9" t="n"/>
       <c r="G16" s="5" t="inlineStr">
         <is>
           <t>Танец преподносимых</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="17">
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="9" t="n"/>
+    </row>
+    <row r="17" ht="20.1" customHeight="1">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Vial of Summoning</t>
@@ -1159,25 +1159,25 @@
       <c r="B17" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="13">
         <f>D17-(B17+B18)</f>
         <v/>
       </c>
-      <c r="D17" s="14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="16" t="inlineStr">
+      <c r="D17" s="15" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
         <is>
           <t>Mask of the Stitched Demon</t>
         </is>
       </c>
-      <c r="F17" s="17" t="n"/>
+      <c r="F17" s="18" t="n"/>
       <c r="G17" s="6" t="inlineStr">
         <is>
           <t>Фиал призыва</t>
         </is>
       </c>
-      <c r="H17" s="10" t="inlineStr">
+      <c r="H17" s="11" t="inlineStr">
         <is>
           <t>Маска Сшитого Демона</t>
         </is>
@@ -1187,44 +1187,44 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="18" thickBot="1">
+    <row r="18" ht="20.1" customHeight="1" thickBot="1">
       <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Mask of the Spirit Drinker</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>8</v>
-      </c>
-      <c r="C18" s="13" t="n"/>
-      <c r="D18" s="15" t="n"/>
-      <c r="E18" s="11" t="n"/>
-      <c r="F18" s="18" t="n"/>
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="n"/>
+      <c r="D18" s="16" t="n"/>
+      <c r="E18" s="12" t="n"/>
+      <c r="F18" s="9" t="n"/>
       <c r="G18" s="7" t="inlineStr">
         <is>
           <t>Маска Духопийцы</t>
         </is>
       </c>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="20.1" r="19">
+      <c r="H18" s="12" t="n"/>
+      <c r="I18" s="9" t="n"/>
+    </row>
+    <row r="19" ht="20.1" customHeight="1">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Vial of Dominance</t>
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="C19" s="12">
+        <v>25.6</v>
+      </c>
+      <c r="C19" s="13">
         <f>D19-(B19+B20)</f>
         <v/>
       </c>
-      <c r="D19" s="14" t="n">
-        <v>80</v>
-      </c>
-      <c r="E19" s="16" t="inlineStr">
+      <c r="D19" s="15" t="n">
+        <v>274.86</v>
+      </c>
+      <c r="E19" s="17" t="inlineStr">
         <is>
           <t>Slavedriver's Hand</t>
         </is>
@@ -1235,7 +1235,7 @@
           <t>Фиал господства</t>
         </is>
       </c>
-      <c r="H19" s="10" t="inlineStr">
+      <c r="H19" s="11" t="inlineStr">
         <is>
           <t>Длань надзирателя</t>
         </is>
@@ -1245,55 +1245,55 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="20.1" r="20" thickBot="1">
+    <row r="20" ht="20.1" customHeight="1" thickBot="1">
       <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Architect's Hand</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" s="13" t="n"/>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="11" t="n"/>
-      <c r="F20" s="18" t="n"/>
+        <v>100</v>
+      </c>
+      <c r="C20" s="14" t="n"/>
+      <c r="D20" s="16" t="n"/>
+      <c r="E20" s="12" t="n"/>
+      <c r="F20" s="9" t="n"/>
       <c r="G20" s="7" t="inlineStr">
         <is>
           <t>Длань архитектора</t>
         </is>
       </c>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="18.75" r="21">
+      <c r="H20" s="12" t="n"/>
+      <c r="I20" s="9" t="n"/>
+    </row>
+    <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Vial of Fate</t>
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" s="12">
+        <v>4</v>
+      </c>
+      <c r="C21" s="13">
         <f>D21-(B21+B22)</f>
         <v/>
       </c>
-      <c r="D21" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E21" s="16" t="inlineStr">
+      <c r="D21" s="15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" s="17" t="inlineStr">
         <is>
           <t>Fate of the Vaal</t>
         </is>
       </c>
-      <c r="F21" s="17" t="n"/>
+      <c r="F21" s="18" t="n"/>
       <c r="G21" s="6" t="inlineStr">
         <is>
           <t>Фиал судьбы</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="11" t="inlineStr">
         <is>
           <t>Судьба ваал</t>
         </is>
@@ -1303,30 +1303,34 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="22" thickBot="1">
+    <row r="22" ht="19.5" customHeight="1" thickBot="1">
       <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Story of the Vaal</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="C22" s="13" t="n"/>
-      <c r="D22" s="15" t="n"/>
-      <c r="E22" s="11" t="n"/>
-      <c r="F22" s="18" t="n"/>
+        <v>10</v>
+      </c>
+      <c r="C22" s="14" t="n"/>
+      <c r="D22" s="16" t="n"/>
+      <c r="E22" s="12" t="n"/>
+      <c r="F22" s="9" t="n"/>
       <c r="G22" s="7" t="inlineStr">
         <is>
           <t>История ваал</t>
         </is>
       </c>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="18" t="n"/>
-    </row>
-    <row customHeight="1" ht="19.5" r="23"/>
+      <c r="H22" s="12" t="n"/>
+      <c r="I22" s="9" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1"/>
+    <row r="24" ht="18.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="F13:F14"/>
@@ -1371,9 +1375,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="H21:H22"/>
@@ -1395,7 +1396,7 @@
     <mergeCell ref="I19:I20"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C22">
-    <cfRule priority="6" type="colorScale">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1407,14 +1408,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I22">
-    <cfRule dxfId="1" operator="containsText" priority="3" text="Лучший вариант" type="containsText">
+    <cfRule type="containsText" priority="3" operator="containsText" dxfId="1" text="Лучший вариант">
       <formula>NOT(ISERROR(SEARCH("Лучший вариант",I1)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="notContains" priority="1" text="Лучший вариант" type="notContainsText">
+    <cfRule type="notContainsText" priority="1" operator="notContains" dxfId="0" text="Лучший вариант">
       <formula>ISERROR(SEARCH("Лучший вариант",I1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>